--- a/Requirements/data_dictionary.xlsx
+++ b/Requirements/data_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PoliMi\SwEng - Ingegneria del Software\Progetto 14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PoliMi\Git\sweng_14_2019\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21FC90-8324-412D-A58A-0F04BDF10B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D1249C-D386-4837-9180-066ACA108213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC441FB0-9100-4D60-BD28-E3BF7BB49A30}"/>
   </bookViews>
@@ -231,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,16 +239,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -258,22 +270,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,7 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FA5BF-6ED9-4B84-97FB-2F263E170DD3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -607,300 +625,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>22070</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>